--- a/Presupuesto-Jalisco/2020-egresos-propuesta/Propuesta de presupuesto 2020. Por unidad presupuestal.xlsx
+++ b/Presupuesto-Jalisco/2020-egresos-propuesta/Propuesta de presupuesto 2020. Por unidad presupuestal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GioVanny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GioVanny\Documents\Transversal-Presupuesto-Abierto\Presupuesto-Jalisco\2020-egresos-propuesta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B2CBF9-A881-4570-9B63-73207AD94527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C9C5B2-6488-4AD5-A204-7C451AD6376C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DF643323-FF92-48D6-9DA8-C797E25F759F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="95">
   <si>
     <t>pp</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Salvaguarda de los Intereses Juridicos, Fiscales y Hacendarios del Estado</t>
-  </si>
-  <si>
-    <t>Secretaria de Salud Jalisco</t>
   </si>
   <si>
     <t>Rectoria del Sistema Estatal de Salud</t>
@@ -364,13 +361,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9E5C35-05A3-4D32-9FD7-B96D8A38FC56}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,8 +723,8 @@
       <c r="C2" s="1">
         <v>636</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="2">
         <v>7211508</v>
@@ -740,76 +734,133 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>25</v>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E3" s="2">
         <v>5058171</v>
       </c>
+      <c r="F3" s="1">
+        <v>2020</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" s="1">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2">
         <v>29077522</v>
       </c>
+      <c r="F4" s="1">
+        <v>2020</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" s="1">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2">
         <v>106162453</v>
       </c>
+      <c r="F5" s="1">
+        <v>2020</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" s="1">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E6" s="2">
         <v>22626190</v>
       </c>
+      <c r="F6" s="1">
+        <v>2020</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="1">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>18989256</v>
       </c>
+      <c r="F7" s="1">
+        <v>2020</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="1">
         <v>36</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>88</v>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E8" s="2">
         <v>9823902</v>
       </c>
+      <c r="F8" s="1">
+        <v>2020</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="1">
         <v>45</v>
       </c>
@@ -819,52 +870,97 @@
       <c r="E9" s="2">
         <v>118024426</v>
       </c>
+      <c r="F9" s="1">
+        <v>2020</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" s="1">
         <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2">
         <v>36405798</v>
       </c>
+      <c r="F10" s="1">
+        <v>2020</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="1">
         <v>580</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2">
         <v>168705555</v>
       </c>
+      <c r="F11" s="1">
+        <v>2020</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" s="1">
         <v>581</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2">
         <v>17142331</v>
       </c>
+      <c r="F12" s="1">
+        <v>2020</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="1">
         <v>582</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2">
         <v>2793669</v>
       </c>
+      <c r="F13" s="1">
+        <v>2020</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" s="1">
         <v>583</v>
       </c>
@@ -874,8 +970,17 @@
       <c r="E14" s="2">
         <v>10096404</v>
       </c>
+      <c r="F14" s="1">
+        <v>2020</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="1">
         <v>584</v>
       </c>
@@ -885,151 +990,277 @@
       <c r="E15" s="2">
         <v>1835541</v>
       </c>
+      <c r="F15" s="1">
+        <v>2020</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C16" s="1">
         <v>605</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2">
         <v>6371328</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C17" s="1">
         <v>711</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2">
         <v>24871288</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C18" s="1">
         <v>712</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2">
         <v>19080738</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C19" s="1">
         <v>714</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2">
         <v>3473535</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C20" s="1">
         <v>733</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2">
         <v>33361965</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C21" s="1">
         <v>739</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2">
         <v>15631383</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C22" s="1">
         <v>804</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2">
         <v>4449973</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C23" s="1">
         <v>805</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2">
         <v>7685448</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C24" s="1">
         <v>850</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2">
         <v>50000000</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C25" s="1">
         <v>928</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="2">
         <v>24220661</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C26" s="1">
         <v>949</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2">
         <v>44404592</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C27" s="1">
         <v>961</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2">
         <v>6851150</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C28" s="1">
         <v>962</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2">
         <v>30557581</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C29" s="1">
         <v>963</v>
       </c>
@@ -1039,44 +1270,77 @@
       <c r="E29" s="2">
         <v>9927700</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C30" s="1">
         <v>964</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="1">
         <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2">
         <v>302975540</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C32" s="1">
         <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2">
         <v>237060026</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C33" s="1">
         <v>66</v>
       </c>
@@ -1086,8 +1350,17 @@
       <c r="E33" s="2">
         <v>75283044</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C34" s="1">
         <v>75</v>
       </c>
@@ -1097,52 +1370,97 @@
       <c r="E34" s="2">
         <v>9141811</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C35" s="1">
         <v>76</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" s="2">
         <v>31448233</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C36" s="1">
         <v>88</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E36" s="2">
         <v>295268835</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C37" s="1">
         <v>89</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="2">
         <v>76416631</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C38" s="1">
         <v>104</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2">
         <v>35732422</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C39" s="1">
         <v>987</v>
       </c>
@@ -1152,45 +1470,77 @@
       <c r="E39" s="2">
         <v>883826036</v>
       </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1">
         <v>111</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2">
         <v>1627774219</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C41" s="1">
         <v>112</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2">
         <v>25227922535</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C42" s="1">
         <v>113</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2">
         <v>2509118513</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C43" s="1">
         <v>119</v>
       </c>
@@ -1200,107 +1550,197 @@
       <c r="E43" s="2">
         <v>149700</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C44" s="1">
         <v>121</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2">
         <v>371455874</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C45" s="1">
         <v>127</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="2">
         <v>4122000</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C46" s="1">
         <v>131</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" s="2">
         <v>25918096</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C47" s="1">
         <v>132</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E47" s="2">
         <v>23489789</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C48" s="1">
         <v>133</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" s="2">
         <v>25754864</v>
       </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C49" s="1">
         <v>137</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E49" s="2">
         <v>85847426</v>
       </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C50" s="1">
         <v>147</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" s="2">
         <v>20764067</v>
       </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C51" s="1">
         <v>148</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E51" s="2">
         <v>325493701</v>
       </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C52" s="1">
         <v>149</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E52" s="2">
         <v>424269000</v>
       </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C53" s="1">
         <v>150</v>
       </c>
@@ -1310,63 +1750,117 @@
       <c r="E53" s="2">
         <v>487224000</v>
       </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C54" s="1">
         <v>151</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E54" s="2">
         <v>103349800</v>
       </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C55" s="1">
         <v>152</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E55" s="2">
         <v>166215300</v>
       </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C56" s="1">
         <v>649</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56" s="2">
         <v>27865031</v>
       </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C57" s="1">
         <v>652</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57" s="2">
         <v>48003241</v>
       </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C58" s="1">
         <v>655</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58" s="2">
         <v>119869686</v>
       </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C59" s="1">
         <v>790</v>
       </c>
@@ -1376,144 +1870,257 @@
       <c r="E59" s="2">
         <v>29381700</v>
       </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C60" s="1">
         <v>807</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E60" s="2">
         <v>573943883</v>
       </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C61" s="1">
         <v>808</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E61" s="2">
         <v>55288092</v>
       </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C62" s="1">
         <v>809</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62" s="2">
         <v>790748552</v>
       </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C63" s="1">
         <v>810</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E63" s="2">
         <v>287605689</v>
       </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C64" s="1">
         <v>811</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E64" s="2">
         <v>16524090</v>
       </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C65" s="1">
         <v>155</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E65" s="2">
         <v>17171236</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C66" s="1">
         <v>164</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66" s="2">
         <v>13820900</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C67" s="1">
         <v>167</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E67" s="2">
         <v>114975000</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C68" s="1">
         <v>171</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E68" s="2">
         <v>444100</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C69" s="1">
         <v>172</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E69" s="2">
         <v>23684230</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C70" s="1">
         <v>178</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E70" s="2">
         <v>21193851</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C71" s="1">
         <v>179</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E71" s="2">
         <v>1037070</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C72" s="1">
         <v>182</v>
       </c>
@@ -1523,141 +2130,248 @@
       <c r="E72" s="2">
         <v>2442879298</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C73" s="1">
         <v>189</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2">
         <v>8505000</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C74" s="1">
         <v>190</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2">
         <v>3121199109</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C75" s="1">
         <v>191</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E75" s="2">
         <v>9536300</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C76" s="1">
         <v>193</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2">
         <v>484574793</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C77" s="1">
         <v>637</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E77" s="2">
         <v>58951851</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C78" s="1">
         <v>667</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E78" s="2">
         <v>529182050</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C79" s="1">
         <v>713</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2">
         <v>2806765000</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C80" s="1">
         <v>715</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E80" s="2">
         <v>37887700</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C81" s="1">
         <v>801</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E81" s="2">
         <v>62314700</v>
       </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C82" s="1">
         <v>909</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E82" s="2">
         <v>3860618300</v>
       </c>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B83" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C83" s="1">
         <v>206</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2">
         <v>300751208</v>
       </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C84" s="1">
         <v>214</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E84" s="2">
         <v>793826512</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
